--- a/data/pca/factorExposure/factorExposure_2015-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02527139558199939</v>
+        <v>0.02152503882788605</v>
       </c>
       <c r="C2">
-        <v>-0.03169060491071284</v>
+        <v>-0.04194468430447537</v>
       </c>
       <c r="D2">
-        <v>0.1118846288284274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1286211740872613</v>
+      </c>
+      <c r="E2">
+        <v>0.04212940036046044</v>
+      </c>
+      <c r="F2">
+        <v>0.03281837771329037</v>
+      </c>
+      <c r="G2">
+        <v>0.08576555055544094</v>
+      </c>
+      <c r="H2">
+        <v>0.0610804151400218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.005332228105511672</v>
+        <v>-0.0006687514184372136</v>
       </c>
       <c r="C3">
-        <v>-0.04833899121380005</v>
+        <v>-0.03711902815559832</v>
       </c>
       <c r="D3">
-        <v>0.05865733718574601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04432793937606894</v>
+      </c>
+      <c r="E3">
+        <v>0.07184415615108962</v>
+      </c>
+      <c r="F3">
+        <v>0.05567783686792975</v>
+      </c>
+      <c r="G3">
+        <v>0.1367886958228014</v>
+      </c>
+      <c r="H3">
+        <v>0.06697878518864657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05143333178822949</v>
+        <v>0.04379800086335252</v>
       </c>
       <c r="C4">
-        <v>-0.06861182161601244</v>
+        <v>-0.08383650735136269</v>
       </c>
       <c r="D4">
-        <v>0.1257937342597037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1446928976943248</v>
+      </c>
+      <c r="E4">
+        <v>0.05692535643389503</v>
+      </c>
+      <c r="F4">
+        <v>0.05731268718929124</v>
+      </c>
+      <c r="G4">
+        <v>-0.04865163408080492</v>
+      </c>
+      <c r="H4">
+        <v>0.0122722454812879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03259912624801481</v>
+        <v>0.03213836042378795</v>
       </c>
       <c r="C6">
-        <v>-0.02807791194833023</v>
+        <v>-0.03541251554902596</v>
       </c>
       <c r="D6">
-        <v>0.1505936662592435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1393936814628725</v>
+      </c>
+      <c r="E6">
+        <v>0.009606611908427497</v>
+      </c>
+      <c r="F6">
+        <v>0.05573486957274696</v>
+      </c>
+      <c r="G6">
+        <v>0.006391881513727385</v>
+      </c>
+      <c r="H6">
+        <v>0.05403151088841437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01850455932510658</v>
+        <v>0.01478076405879172</v>
       </c>
       <c r="C7">
-        <v>-0.03308059706244098</v>
+        <v>-0.03870091487944342</v>
       </c>
       <c r="D7">
-        <v>0.1117273869489084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09879887611556776</v>
+      </c>
+      <c r="E7">
+        <v>-0.005419187133257491</v>
+      </c>
+      <c r="F7">
+        <v>0.02687362094702333</v>
+      </c>
+      <c r="G7">
+        <v>0.02549112387633948</v>
+      </c>
+      <c r="H7">
+        <v>0.06091888659150363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01107052180427563</v>
+        <v>0.005903741063005634</v>
       </c>
       <c r="C8">
-        <v>-0.03473800755566895</v>
+        <v>-0.03985151654694908</v>
       </c>
       <c r="D8">
-        <v>0.06250822356351188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07738639632678378</v>
+      </c>
+      <c r="E8">
+        <v>0.02527931299519644</v>
+      </c>
+      <c r="F8">
+        <v>0.07206381922854573</v>
+      </c>
+      <c r="G8">
+        <v>0.05583086187013221</v>
+      </c>
+      <c r="H8">
+        <v>0.03477946108545361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04159313571364152</v>
+        <v>0.03437407490523779</v>
       </c>
       <c r="C9">
-        <v>-0.06140051372452746</v>
+        <v>-0.07334182969192067</v>
       </c>
       <c r="D9">
-        <v>0.1180572321219624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1247127527033578</v>
+      </c>
+      <c r="E9">
+        <v>0.03760019506953281</v>
+      </c>
+      <c r="F9">
+        <v>0.03542174271916648</v>
+      </c>
+      <c r="G9">
+        <v>-0.03288723430422021</v>
+      </c>
+      <c r="H9">
+        <v>0.004238124124150327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1284159872002265</v>
+        <v>0.1764983150322086</v>
       </c>
       <c r="C10">
-        <v>0.1864609905187526</v>
+        <v>0.1703687248058741</v>
       </c>
       <c r="D10">
-        <v>0.00110662921958137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008554059457095085</v>
+      </c>
+      <c r="E10">
+        <v>0.02988893272864367</v>
+      </c>
+      <c r="F10">
+        <v>0.0376336597184881</v>
+      </c>
+      <c r="G10">
+        <v>-0.01479338576954766</v>
+      </c>
+      <c r="H10">
+        <v>-0.05242156815855663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03401568750063187</v>
+        <v>0.02764777372108636</v>
       </c>
       <c r="C11">
-        <v>-0.04399185156555981</v>
+        <v>-0.05216589776378663</v>
       </c>
       <c r="D11">
-        <v>0.06161423517634383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05472798139049217</v>
+      </c>
+      <c r="E11">
+        <v>-0.01713686011847203</v>
+      </c>
+      <c r="F11">
+        <v>-0.004998039673358773</v>
+      </c>
+      <c r="G11">
+        <v>0.01323895921929712</v>
+      </c>
+      <c r="H11">
+        <v>0.02596859749677155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03925866687135469</v>
+        <v>0.03100874604535585</v>
       </c>
       <c r="C12">
-        <v>-0.04578723606937693</v>
+        <v>-0.05254677499200801</v>
       </c>
       <c r="D12">
-        <v>0.06748384793720409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05471958673784647</v>
+      </c>
+      <c r="E12">
+        <v>-0.008268587723263675</v>
+      </c>
+      <c r="F12">
+        <v>-0.009730412850909639</v>
+      </c>
+      <c r="G12">
+        <v>0.0145083111386765</v>
+      </c>
+      <c r="H12">
+        <v>0.03038234692289863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01020486697711991</v>
+        <v>0.01299332956160762</v>
       </c>
       <c r="C13">
-        <v>-0.03639098390986041</v>
+        <v>-0.04493104923810275</v>
       </c>
       <c r="D13">
-        <v>0.1412630524952602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.158890157019251</v>
+      </c>
+      <c r="E13">
+        <v>0.01193948362308813</v>
+      </c>
+      <c r="F13">
+        <v>0.07316739393857578</v>
+      </c>
+      <c r="G13">
+        <v>0.04222435572192879</v>
+      </c>
+      <c r="H13">
+        <v>0.03100785180699795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004734218936261251</v>
+        <v>0.005896673697419346</v>
       </c>
       <c r="C14">
-        <v>-0.02513840851535245</v>
+        <v>-0.02831256154829827</v>
       </c>
       <c r="D14">
-        <v>0.1042781691032876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1052124946968324</v>
+      </c>
+      <c r="E14">
+        <v>0.01729323406658458</v>
+      </c>
+      <c r="F14">
+        <v>0.02810765299816094</v>
+      </c>
+      <c r="G14">
+        <v>0.03098914972522314</v>
+      </c>
+      <c r="H14">
+        <v>0.08359730844310719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003000564087598335</v>
+        <v>0.001566431080107687</v>
       </c>
       <c r="C15">
-        <v>-0.00610099127045057</v>
+        <v>-0.01439287855880685</v>
       </c>
       <c r="D15">
-        <v>0.01044430440750426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04056690516804575</v>
+      </c>
+      <c r="E15">
+        <v>0.008683285583178796</v>
+      </c>
+      <c r="F15">
+        <v>0.007985794263949852</v>
+      </c>
+      <c r="G15">
+        <v>0.009768161518008146</v>
+      </c>
+      <c r="H15">
+        <v>0.01863054913275441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03144961410225874</v>
+        <v>0.02604622178277725</v>
       </c>
       <c r="C16">
-        <v>-0.04513674530832743</v>
+        <v>-0.05070601941995803</v>
       </c>
       <c r="D16">
-        <v>0.07143184478191576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0613251165130538</v>
+      </c>
+      <c r="E16">
+        <v>0.0001819072997553861</v>
+      </c>
+      <c r="F16">
+        <v>0.002010809281809803</v>
+      </c>
+      <c r="G16">
+        <v>0.01345397833364636</v>
+      </c>
+      <c r="H16">
+        <v>0.04180172910838919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01008280134119304</v>
+        <v>0.005792210823485724</v>
       </c>
       <c r="C19">
-        <v>-0.03222675501999433</v>
+        <v>-0.0278936510717793</v>
       </c>
       <c r="D19">
-        <v>0.1505943920487025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1141716704306003</v>
+      </c>
+      <c r="E19">
+        <v>0.04578239347096733</v>
+      </c>
+      <c r="F19">
+        <v>0.01023818371191234</v>
+      </c>
+      <c r="G19">
+        <v>0.02721650492661467</v>
+      </c>
+      <c r="H19">
+        <v>0.0428090020428533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01402894032888675</v>
+        <v>0.013743362669975</v>
       </c>
       <c r="C20">
-        <v>-0.0358599706339582</v>
+        <v>-0.04020954630155036</v>
       </c>
       <c r="D20">
-        <v>0.09387826221044293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1057741629576615</v>
+      </c>
+      <c r="E20">
+        <v>0.03785783582750387</v>
+      </c>
+      <c r="F20">
+        <v>0.02432241079320297</v>
+      </c>
+      <c r="G20">
+        <v>0.009898869514667421</v>
+      </c>
+      <c r="H20">
+        <v>0.05221165091185251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009809047294837267</v>
+        <v>0.007097585952858903</v>
       </c>
       <c r="C21">
-        <v>-0.03841104235699003</v>
+        <v>-0.04414243927500168</v>
       </c>
       <c r="D21">
-        <v>0.1542262276480562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1527456774657189</v>
+      </c>
+      <c r="E21">
+        <v>0.06958444349153181</v>
+      </c>
+      <c r="F21">
+        <v>0.06216053425988408</v>
+      </c>
+      <c r="G21">
+        <v>0.01259117320966292</v>
+      </c>
+      <c r="H21">
+        <v>0.07715870064925499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001139547700638554</v>
+        <v>0.007346205285244458</v>
       </c>
       <c r="C22">
-        <v>-0.05012891742728556</v>
+        <v>-0.05275691649799873</v>
       </c>
       <c r="D22">
-        <v>0.1283991709418554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1891979597241355</v>
+      </c>
+      <c r="E22">
+        <v>0.009760541821039932</v>
+      </c>
+      <c r="F22">
+        <v>0.124988844104963</v>
+      </c>
+      <c r="G22">
+        <v>0.1165286158728965</v>
+      </c>
+      <c r="H22">
+        <v>-0.08239907056690365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001311169987120901</v>
+        <v>0.007420124167066587</v>
       </c>
       <c r="C23">
-        <v>-0.0504386930393404</v>
+        <v>-0.05331314444468339</v>
       </c>
       <c r="D23">
-        <v>0.12779494178866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.188309160573832</v>
+      </c>
+      <c r="E23">
+        <v>0.009960208526493675</v>
+      </c>
+      <c r="F23">
+        <v>0.1249935024299812</v>
+      </c>
+      <c r="G23">
+        <v>0.1158339377857738</v>
+      </c>
+      <c r="H23">
+        <v>-0.08243846377031221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03775209093629001</v>
+        <v>0.02857538368546101</v>
       </c>
       <c r="C24">
-        <v>-0.05852161196695505</v>
+        <v>-0.06321986339709347</v>
       </c>
       <c r="D24">
-        <v>0.07104319500868328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06123561493356593</v>
+      </c>
+      <c r="E24">
+        <v>-0.002843228366932067</v>
+      </c>
+      <c r="F24">
+        <v>-0.0003826537215807883</v>
+      </c>
+      <c r="G24">
+        <v>0.007369752156905779</v>
+      </c>
+      <c r="H24">
+        <v>0.05260289118416186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0421039435151592</v>
+        <v>0.03347432804370951</v>
       </c>
       <c r="C25">
-        <v>-0.05199034834373988</v>
+        <v>-0.05992373865067496</v>
       </c>
       <c r="D25">
-        <v>0.06861835418216225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.060597554479624</v>
+      </c>
+      <c r="E25">
+        <v>0.002757066733336253</v>
+      </c>
+      <c r="F25">
+        <v>0.002211517779461175</v>
+      </c>
+      <c r="G25">
+        <v>0.01244147339467767</v>
+      </c>
+      <c r="H25">
+        <v>0.01924280936201342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0138841008595486</v>
+        <v>0.01374202431976968</v>
       </c>
       <c r="C26">
-        <v>-0.01456725432502255</v>
+        <v>-0.02229154070704207</v>
       </c>
       <c r="D26">
-        <v>0.07181311606134062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0729493707743165</v>
+      </c>
+      <c r="E26">
+        <v>0.01497792898090238</v>
+      </c>
+      <c r="F26">
+        <v>0.03159811092793613</v>
+      </c>
+      <c r="G26">
+        <v>0.01972402565883332</v>
+      </c>
+      <c r="H26">
+        <v>0.0494654310230996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1908881435841367</v>
+        <v>0.2531167126579815</v>
       </c>
       <c r="C28">
-        <v>0.2500492749189429</v>
+        <v>0.2209408575490965</v>
       </c>
       <c r="D28">
-        <v>-0.006021517292519406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003488847932137945</v>
+      </c>
+      <c r="E28">
+        <v>0.05565731333310753</v>
+      </c>
+      <c r="F28">
+        <v>0.02154212969340041</v>
+      </c>
+      <c r="G28">
+        <v>-0.04555248601238604</v>
+      </c>
+      <c r="H28">
+        <v>-0.06348473164721111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003639508890283128</v>
+        <v>0.005270972065755771</v>
       </c>
       <c r="C29">
-        <v>-0.02310324399530587</v>
+        <v>-0.02706080723739604</v>
       </c>
       <c r="D29">
-        <v>0.09498017972386696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1029705585297595</v>
+      </c>
+      <c r="E29">
+        <v>0.004804006776076024</v>
+      </c>
+      <c r="F29">
+        <v>0.04776438257793946</v>
+      </c>
+      <c r="G29">
+        <v>0.02348376735896137</v>
+      </c>
+      <c r="H29">
+        <v>0.07981727148711153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03006508619681584</v>
+        <v>0.03079504743289018</v>
       </c>
       <c r="C30">
-        <v>-0.06634167719024181</v>
+        <v>-0.07721620008736772</v>
       </c>
       <c r="D30">
-        <v>0.1581565602878787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.166917001226903</v>
+      </c>
+      <c r="E30">
+        <v>0.01040164126516287</v>
+      </c>
+      <c r="F30">
+        <v>0.04131042128068103</v>
+      </c>
+      <c r="G30">
+        <v>0.003986311576480485</v>
+      </c>
+      <c r="H30">
+        <v>0.06623477833976946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05716842770795626</v>
+        <v>0.04142574758885648</v>
       </c>
       <c r="C31">
-        <v>-0.07282755105537257</v>
+        <v>-0.08144060411265788</v>
       </c>
       <c r="D31">
-        <v>0.05594857397048459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04277119400845601</v>
+      </c>
+      <c r="E31">
+        <v>0.01506830754616823</v>
+      </c>
+      <c r="F31">
+        <v>0.03678995975614741</v>
+      </c>
+      <c r="G31">
+        <v>0.01640656822344373</v>
+      </c>
+      <c r="H31">
+        <v>0.01009712081054102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02430407866492249</v>
+        <v>0.02306120310829035</v>
       </c>
       <c r="C32">
-        <v>-0.02298292039659913</v>
+        <v>-0.02851098620918987</v>
       </c>
       <c r="D32">
-        <v>0.09664643345419874</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1200571430762587</v>
+      </c>
+      <c r="E32">
+        <v>0.04574961279646354</v>
+      </c>
+      <c r="F32">
+        <v>0.06185517246957806</v>
+      </c>
+      <c r="G32">
+        <v>0.01538600415417077</v>
+      </c>
+      <c r="H32">
+        <v>0.03069069676657309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02195918401627801</v>
+        <v>0.02131273094428973</v>
       </c>
       <c r="C33">
-        <v>-0.04462741395501024</v>
+        <v>-0.05152347394887755</v>
       </c>
       <c r="D33">
-        <v>0.147200251170811</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1390093797207299</v>
+      </c>
+      <c r="E33">
+        <v>0.02868457344379205</v>
+      </c>
+      <c r="F33">
+        <v>0.03556627937916066</v>
+      </c>
+      <c r="G33">
+        <v>0.01348060955466335</v>
+      </c>
+      <c r="H33">
+        <v>0.04442930964338124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03656017902278016</v>
+        <v>0.0263701115386249</v>
       </c>
       <c r="C34">
-        <v>-0.06235444873116752</v>
+        <v>-0.06511942055060345</v>
       </c>
       <c r="D34">
-        <v>0.06801247895292585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05044356780448787</v>
+      </c>
+      <c r="E34">
+        <v>-0.01879597974422312</v>
+      </c>
+      <c r="F34">
+        <v>-0.0145479919150607</v>
+      </c>
+      <c r="G34">
+        <v>0.02623610169043228</v>
+      </c>
+      <c r="H34">
+        <v>0.04098364279905304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001320946500564817</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002032136423443202</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0101051335904718</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004376339125057214</v>
+      </c>
+      <c r="F35">
+        <v>0.002114662390547862</v>
+      </c>
+      <c r="G35">
+        <v>0.000868687429609491</v>
+      </c>
+      <c r="H35">
+        <v>0.002823290468870737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01879558264288009</v>
+        <v>0.01837075538223994</v>
       </c>
       <c r="C36">
-        <v>-0.009078663457312782</v>
+        <v>-0.01883636280325436</v>
       </c>
       <c r="D36">
-        <v>0.09438523215758968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08686475328145112</v>
+      </c>
+      <c r="E36">
+        <v>0.01981142001243955</v>
+      </c>
+      <c r="F36">
+        <v>0.02327969699899689</v>
+      </c>
+      <c r="G36">
+        <v>-0.002067935049896495</v>
+      </c>
+      <c r="H36">
+        <v>0.0408912993573469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01758423860399441</v>
+        <v>0.02158652668596476</v>
       </c>
       <c r="C38">
-        <v>-0.015476792476459</v>
+        <v>-0.01884047092919294</v>
       </c>
       <c r="D38">
-        <v>0.08268107288223339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07972726384035471</v>
+      </c>
+      <c r="E38">
+        <v>0.03081263791789887</v>
+      </c>
+      <c r="F38">
+        <v>-0.01147530993695487</v>
+      </c>
+      <c r="G38">
+        <v>0.02572980118849585</v>
+      </c>
+      <c r="H38">
+        <v>0.03378231913501067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0381445252826098</v>
+        <v>0.02971175145563672</v>
       </c>
       <c r="C39">
-        <v>-0.06000450101775533</v>
+        <v>-0.07401566947018701</v>
       </c>
       <c r="D39">
-        <v>0.1096727309756773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.109717822376466</v>
+      </c>
+      <c r="E39">
+        <v>-0.01002390994032313</v>
+      </c>
+      <c r="F39">
+        <v>-0.008295960623882164</v>
+      </c>
+      <c r="G39">
+        <v>0.005765905036670128</v>
+      </c>
+      <c r="H39">
+        <v>0.0846859470064773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01619793822066618</v>
+        <v>0.0126754759351637</v>
       </c>
       <c r="C40">
-        <v>-0.04367941410507192</v>
+        <v>-0.03973248729859371</v>
       </c>
       <c r="D40">
-        <v>0.08902523200538179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09356356745844276</v>
+      </c>
+      <c r="E40">
+        <v>0.03410325654734746</v>
+      </c>
+      <c r="F40">
+        <v>0.1038897893588266</v>
+      </c>
+      <c r="G40">
+        <v>0.1788629496495261</v>
+      </c>
+      <c r="H40">
+        <v>0.09637426476595058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03088870432764351</v>
+        <v>0.02855181123099189</v>
       </c>
       <c r="C41">
-        <v>-0.00526754741093233</v>
+        <v>-0.01434668108149203</v>
       </c>
       <c r="D41">
-        <v>0.07127307828283348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05253671574865343</v>
+      </c>
+      <c r="E41">
+        <v>0.04477452320380057</v>
+      </c>
+      <c r="F41">
+        <v>0.01495748426708663</v>
+      </c>
+      <c r="G41">
+        <v>0.03299233735789811</v>
+      </c>
+      <c r="H41">
+        <v>0.03523294350523075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0256289948083454</v>
+        <v>0.02157994648596941</v>
       </c>
       <c r="C43">
-        <v>-0.01461567790151522</v>
+        <v>-0.02121135965794995</v>
       </c>
       <c r="D43">
-        <v>0.1065351472396636</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08110119893552921</v>
+      </c>
+      <c r="E43">
+        <v>0.0241056186159749</v>
+      </c>
+      <c r="F43">
+        <v>0.01154571848736808</v>
+      </c>
+      <c r="G43">
+        <v>0.02857371407485339</v>
+      </c>
+      <c r="H43">
+        <v>0.04291034045656833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01470173758776274</v>
+        <v>0.01581553556257871</v>
       </c>
       <c r="C44">
-        <v>-0.04415047921253889</v>
+        <v>-0.04517504616460752</v>
       </c>
       <c r="D44">
-        <v>0.09344969453821392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1102827927786976</v>
+      </c>
+      <c r="E44">
+        <v>0.03203255384931186</v>
+      </c>
+      <c r="F44">
+        <v>0.02308962936326858</v>
+      </c>
+      <c r="G44">
+        <v>0.00935893830412301</v>
+      </c>
+      <c r="H44">
+        <v>0.04824672757947528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01655642200934805</v>
+        <v>0.01194637698272244</v>
       </c>
       <c r="C46">
-        <v>-0.02699102950894872</v>
+        <v>-0.03491174508951172</v>
       </c>
       <c r="D46">
-        <v>0.1052218510023594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09970941917006</v>
+      </c>
+      <c r="E46">
+        <v>0.01449466349019272</v>
+      </c>
+      <c r="F46">
+        <v>0.02345561513441028</v>
+      </c>
+      <c r="G46">
+        <v>0.01308529927088172</v>
+      </c>
+      <c r="H46">
+        <v>0.08225558253217677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09129111554073902</v>
+        <v>0.07164142975734276</v>
       </c>
       <c r="C47">
-        <v>-0.08625910962778455</v>
+        <v>-0.1019401337552841</v>
       </c>
       <c r="D47">
-        <v>0.02874129473489477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02432064756389159</v>
+      </c>
+      <c r="E47">
+        <v>0.02356144933243862</v>
+      </c>
+      <c r="F47">
+        <v>0.01915240270079233</v>
+      </c>
+      <c r="G47">
+        <v>0.003097193775689565</v>
+      </c>
+      <c r="H47">
+        <v>-0.05872511238716462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01238269233966927</v>
+        <v>0.01351064157261128</v>
       </c>
       <c r="C48">
-        <v>-0.02078118431981181</v>
+        <v>-0.02524339105386599</v>
       </c>
       <c r="D48">
-        <v>0.08515001157971003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08419641271132321</v>
+      </c>
+      <c r="E48">
+        <v>0.04809061789494303</v>
+      </c>
+      <c r="F48">
+        <v>0.03042818330047073</v>
+      </c>
+      <c r="G48">
+        <v>0.006714866891255469</v>
+      </c>
+      <c r="H48">
+        <v>0.05909220587724911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0532406114211674</v>
+        <v>0.03966779046816823</v>
       </c>
       <c r="C50">
-        <v>-0.06000046343664042</v>
+        <v>-0.07005447983572945</v>
       </c>
       <c r="D50">
-        <v>0.06335590047697354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05321390066141148</v>
+      </c>
+      <c r="E50">
+        <v>0.01843904072219482</v>
+      </c>
+      <c r="F50">
+        <v>0.03741257005666945</v>
+      </c>
+      <c r="G50">
+        <v>0.0400465274505602</v>
+      </c>
+      <c r="H50">
+        <v>-0.004334315649635534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01164927345343825</v>
+        <v>0.009521911243981345</v>
       </c>
       <c r="C51">
-        <v>-0.01831060214181505</v>
+        <v>-0.02433397034518155</v>
       </c>
       <c r="D51">
-        <v>0.0910365100247021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09467716279719719</v>
+      </c>
+      <c r="E51">
+        <v>-0.00536282217044034</v>
+      </c>
+      <c r="F51">
+        <v>0.009412341849109621</v>
+      </c>
+      <c r="G51">
+        <v>0.0001062813355027968</v>
+      </c>
+      <c r="H51">
+        <v>0.0710002543826436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1074467752675459</v>
+        <v>0.09219813376094529</v>
       </c>
       <c r="C53">
-        <v>-0.1054165785452386</v>
+        <v>-0.1240874614547273</v>
       </c>
       <c r="D53">
-        <v>-0.01361107326193823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006731633053988688</v>
+      </c>
+      <c r="E53">
+        <v>0.07354519105479784</v>
+      </c>
+      <c r="F53">
+        <v>0.07769922827743869</v>
+      </c>
+      <c r="G53">
+        <v>7.980935606019326e-05</v>
+      </c>
+      <c r="H53">
+        <v>-0.01811141001615127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02006983014488213</v>
+        <v>0.01818191530571609</v>
       </c>
       <c r="C54">
-        <v>-0.02770883709915475</v>
+        <v>-0.03586319616091044</v>
       </c>
       <c r="D54">
-        <v>0.1112444139655147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09644962622735359</v>
+      </c>
+      <c r="E54">
+        <v>0.02695104872258205</v>
+      </c>
+      <c r="F54">
+        <v>0.01733308985945401</v>
+      </c>
+      <c r="G54">
+        <v>0.04756162247926095</v>
+      </c>
+      <c r="H54">
+        <v>0.06188848174268965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09910243705346848</v>
+        <v>0.08239571472432665</v>
       </c>
       <c r="C55">
-        <v>-0.07977734638561673</v>
+        <v>-0.09801294497767057</v>
       </c>
       <c r="D55">
-        <v>-0.02609829565401891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02222575157877842</v>
+      </c>
+      <c r="E55">
+        <v>0.02597886001754325</v>
+      </c>
+      <c r="F55">
+        <v>0.06325775320086241</v>
+      </c>
+      <c r="G55">
+        <v>0.02620486245127285</v>
+      </c>
+      <c r="H55">
+        <v>-0.02262180110762069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1388226176777393</v>
+        <v>0.1146723117900302</v>
       </c>
       <c r="C56">
-        <v>-0.1143800402196159</v>
+        <v>-0.1470463378947506</v>
       </c>
       <c r="D56">
-        <v>-0.02435450957480903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02402227271109312</v>
+      </c>
+      <c r="E56">
+        <v>0.04981114235122719</v>
+      </c>
+      <c r="F56">
+        <v>0.05126193410025289</v>
+      </c>
+      <c r="G56">
+        <v>0.03149451149453323</v>
+      </c>
+      <c r="H56">
+        <v>-0.04406237271321004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006169171709650063</v>
+        <v>0.003791166595057049</v>
       </c>
       <c r="C58">
-        <v>-0.03939715071248914</v>
+        <v>-0.0519992233891384</v>
       </c>
       <c r="D58">
-        <v>0.191461989938929</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2624365909131209</v>
+      </c>
+      <c r="E58">
+        <v>0.1065577914107592</v>
+      </c>
+      <c r="F58">
+        <v>0.1185317518871997</v>
+      </c>
+      <c r="G58">
+        <v>0.06892625562281032</v>
+      </c>
+      <c r="H58">
+        <v>-0.01986000624905589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.150647348044091</v>
+        <v>0.196039709141654</v>
       </c>
       <c r="C59">
-        <v>0.1672974153034662</v>
+        <v>0.1406893419247068</v>
       </c>
       <c r="D59">
-        <v>0.05945940967047319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07170350735088318</v>
+      </c>
+      <c r="E59">
+        <v>0.03910625444880037</v>
+      </c>
+      <c r="F59">
+        <v>-0.02153966899608773</v>
+      </c>
+      <c r="G59">
+        <v>-0.01685104758868667</v>
+      </c>
+      <c r="H59">
+        <v>-0.0226345165929039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2319656070819441</v>
+        <v>0.2089654827693816</v>
       </c>
       <c r="C60">
-        <v>-0.08238317274482246</v>
+        <v>-0.1284525191466126</v>
       </c>
       <c r="D60">
-        <v>0.1682449653099838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1121215370307099</v>
+      </c>
+      <c r="E60">
+        <v>-0.3252678849115329</v>
+      </c>
+      <c r="F60">
+        <v>-0.1009464023102201</v>
+      </c>
+      <c r="G60">
+        <v>-0.09216954513882325</v>
+      </c>
+      <c r="H60">
+        <v>-0.1719906447543735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04416083953469548</v>
+        <v>0.0346512120016919</v>
       </c>
       <c r="C61">
-        <v>-0.05702368388528976</v>
+        <v>-0.06757361675725944</v>
       </c>
       <c r="D61">
-        <v>0.1164756468388185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09702033101301021</v>
+      </c>
+      <c r="E61">
+        <v>-0.01042530060554967</v>
+      </c>
+      <c r="F61">
+        <v>-0.00772487782290909</v>
+      </c>
+      <c r="G61">
+        <v>0.00367588768413224</v>
+      </c>
+      <c r="H61">
+        <v>0.04430919815316008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01524306733085429</v>
+        <v>0.01282110639402431</v>
       </c>
       <c r="C63">
-        <v>-0.02664528831766991</v>
+        <v>-0.03516246054584672</v>
       </c>
       <c r="D63">
-        <v>0.08602192819246293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07701544870588854</v>
+      </c>
+      <c r="E63">
+        <v>0.002866915827660363</v>
+      </c>
+      <c r="F63">
+        <v>0.02494604879401289</v>
+      </c>
+      <c r="G63">
+        <v>0.007645915302712416</v>
+      </c>
+      <c r="H63">
+        <v>0.04944064002732038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05713753278582565</v>
+        <v>0.04330211865527992</v>
       </c>
       <c r="C64">
-        <v>-0.0745837167331979</v>
+        <v>-0.08470026326262756</v>
       </c>
       <c r="D64">
-        <v>0.05105402747043407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05383797875028718</v>
+      </c>
+      <c r="E64">
+        <v>0.0125968741940887</v>
+      </c>
+      <c r="F64">
+        <v>0.005714901290212016</v>
+      </c>
+      <c r="G64">
+        <v>-0.07067460604485949</v>
+      </c>
+      <c r="H64">
+        <v>0.0749876623400349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03160909790997549</v>
+        <v>0.02902381870155461</v>
       </c>
       <c r="C65">
-        <v>-0.02429481063051001</v>
+        <v>-0.03561825789015649</v>
       </c>
       <c r="D65">
-        <v>0.1128611291953781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1090038028716418</v>
+      </c>
+      <c r="E65">
+        <v>-0.003880819427771513</v>
+      </c>
+      <c r="F65">
+        <v>0.03223146240870775</v>
+      </c>
+      <c r="G65">
+        <v>0.01349547369651522</v>
+      </c>
+      <c r="H65">
+        <v>0.02075904219123934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04135261015752542</v>
+        <v>0.03310360156758003</v>
       </c>
       <c r="C66">
-        <v>-0.0682690151490911</v>
+        <v>-0.08571719692110484</v>
       </c>
       <c r="D66">
-        <v>0.1219168714661059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1342197656805509</v>
+      </c>
+      <c r="E66">
+        <v>-0.003693271721979765</v>
+      </c>
+      <c r="F66">
+        <v>-0.002604490754301185</v>
+      </c>
+      <c r="G66">
+        <v>0.01561446300786309</v>
+      </c>
+      <c r="H66">
+        <v>0.04439782805246167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03896326425753341</v>
+        <v>0.03750373254779123</v>
       </c>
       <c r="C67">
-        <v>-0.02094979643105037</v>
+        <v>-0.02761845641335567</v>
       </c>
       <c r="D67">
-        <v>0.04576618450566535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03399981788591478</v>
+      </c>
+      <c r="E67">
+        <v>0.006746513472585065</v>
+      </c>
+      <c r="F67">
+        <v>-0.02508624417829759</v>
+      </c>
+      <c r="G67">
+        <v>0.02583737392889839</v>
+      </c>
+      <c r="H67">
+        <v>0.03827949899599554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1828284385667697</v>
+        <v>0.2258217229333465</v>
       </c>
       <c r="C68">
-        <v>0.2008260159394423</v>
+        <v>0.164209891444574</v>
       </c>
       <c r="D68">
-        <v>0.02536511931868192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03069671922549901</v>
+      </c>
+      <c r="E68">
+        <v>0.01285138586713552</v>
+      </c>
+      <c r="F68">
+        <v>0.03496325177245587</v>
+      </c>
+      <c r="G68">
+        <v>0.02296870112074819</v>
+      </c>
+      <c r="H68">
+        <v>-0.02424431527373016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08647309210485334</v>
+        <v>0.06564572931714992</v>
       </c>
       <c r="C69">
-        <v>-0.1004611743598989</v>
+        <v>-0.1073750147880843</v>
       </c>
       <c r="D69">
-        <v>0.06237040663994385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03994188554727845</v>
+      </c>
+      <c r="E69">
+        <v>0.005957276092405343</v>
+      </c>
+      <c r="F69">
+        <v>0.007760439099333248</v>
+      </c>
+      <c r="G69">
+        <v>0.009171135390194424</v>
+      </c>
+      <c r="H69">
+        <v>-0.02790561671709018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1694174636963254</v>
+        <v>0.2133966271345644</v>
       </c>
       <c r="C71">
-        <v>0.2087223300925731</v>
+        <v>0.1739592974617215</v>
       </c>
       <c r="D71">
-        <v>0.01771296020142331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02789284027916276</v>
+      </c>
+      <c r="E71">
+        <v>0.0335932699279792</v>
+      </c>
+      <c r="F71">
+        <v>0.05598698700141486</v>
+      </c>
+      <c r="G71">
+        <v>0.04255067422397065</v>
+      </c>
+      <c r="H71">
+        <v>-0.02755188279706828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1088203578975342</v>
+        <v>0.09342015096097969</v>
       </c>
       <c r="C72">
-        <v>-0.06311981804030248</v>
+        <v>-0.09265909962226172</v>
       </c>
       <c r="D72">
-        <v>0.07949827814220962</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08122743596640288</v>
+      </c>
+      <c r="E72">
+        <v>-0.06508508308573868</v>
+      </c>
+      <c r="F72">
+        <v>0.04048577705548793</v>
+      </c>
+      <c r="G72">
+        <v>0.0001976954330085379</v>
+      </c>
+      <c r="H72">
+        <v>0.02635084723843178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.218192028499599</v>
+        <v>0.1943830566525205</v>
       </c>
       <c r="C73">
-        <v>-0.04971117126799988</v>
+        <v>-0.108571538408863</v>
       </c>
       <c r="D73">
-        <v>0.2827053120167147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1571707351386903</v>
+      </c>
+      <c r="E73">
+        <v>-0.5765212782682774</v>
+      </c>
+      <c r="F73">
+        <v>-0.1719844829460856</v>
+      </c>
+      <c r="G73">
+        <v>-0.1617878240239135</v>
+      </c>
+      <c r="H73">
+        <v>-0.207033318990746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.111419371030806</v>
+        <v>0.09032905096505059</v>
       </c>
       <c r="C74">
-        <v>-0.08863563122858904</v>
+        <v>-0.1097803498066542</v>
       </c>
       <c r="D74">
-        <v>-0.03864588678527414</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03816153439903865</v>
+      </c>
+      <c r="E74">
+        <v>0.0318321166737043</v>
+      </c>
+      <c r="F74">
+        <v>0.06641884591395261</v>
+      </c>
+      <c r="G74">
+        <v>-0.01690116852697291</v>
+      </c>
+      <c r="H74">
+        <v>-0.03487010620887599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2614077113914854</v>
+        <v>0.2162458799408349</v>
       </c>
       <c r="C75">
-        <v>-0.1508644715119397</v>
+        <v>-0.1995033930286202</v>
       </c>
       <c r="D75">
-        <v>-0.1285300228083333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.144986892941096</v>
+      </c>
+      <c r="E75">
+        <v>0.08005280877253919</v>
+      </c>
+      <c r="F75">
+        <v>0.01568904944608633</v>
+      </c>
+      <c r="G75">
+        <v>0.04946104566111926</v>
+      </c>
+      <c r="H75">
+        <v>-0.05584621464409442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1508786286184199</v>
+        <v>0.1215509728479344</v>
       </c>
       <c r="C76">
-        <v>-0.1116156155724019</v>
+        <v>-0.1389458435071184</v>
       </c>
       <c r="D76">
-        <v>-0.02608347714105879</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03324399869373601</v>
+      </c>
+      <c r="E76">
+        <v>0.07722645168315366</v>
+      </c>
+      <c r="F76">
+        <v>0.03492905575339377</v>
+      </c>
+      <c r="G76">
+        <v>0.03183831239728944</v>
+      </c>
+      <c r="H76">
+        <v>0.02984657538312675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04513124363898647</v>
+        <v>0.04727171668922514</v>
       </c>
       <c r="C77">
-        <v>-0.07664608295550775</v>
+        <v>-0.08288453224893132</v>
       </c>
       <c r="D77">
-        <v>0.03984507929483591</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1387968790105141</v>
+      </c>
+      <c r="E77">
+        <v>0.4906169414474199</v>
+      </c>
+      <c r="F77">
+        <v>-0.4053274047906347</v>
+      </c>
+      <c r="G77">
+        <v>0.08593082969240327</v>
+      </c>
+      <c r="H77">
+        <v>-0.6582612118869959</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04223453587479464</v>
+        <v>0.03920854235783239</v>
       </c>
       <c r="C78">
-        <v>-0.06352939942253424</v>
+        <v>-0.0751214185765454</v>
       </c>
       <c r="D78">
-        <v>0.13765413878925</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1409925581404427</v>
+      </c>
+      <c r="E78">
+        <v>0.007628757068852639</v>
+      </c>
+      <c r="F78">
+        <v>0.03791876114824295</v>
+      </c>
+      <c r="G78">
+        <v>-0.006876233301071669</v>
+      </c>
+      <c r="H78">
+        <v>-0.01774263840376714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05827436350002312</v>
+        <v>0.05278321481928383</v>
       </c>
       <c r="C79">
-        <v>-0.1057631585507979</v>
+        <v>-0.1179992006400222</v>
       </c>
       <c r="D79">
-        <v>-0.1581311167701066</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06860703951562812</v>
+      </c>
+      <c r="E79">
+        <v>0.2162504877926903</v>
+      </c>
+      <c r="F79">
+        <v>0.4448755845352326</v>
+      </c>
+      <c r="G79">
+        <v>-0.761479150884641</v>
+      </c>
+      <c r="H79">
+        <v>-0.1130960098655329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02245106055637508</v>
+        <v>0.0183932857361711</v>
       </c>
       <c r="C80">
-        <v>-0.04770130687854156</v>
+        <v>-0.04858190503575387</v>
       </c>
       <c r="D80">
-        <v>0.02936628644843269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0256636763992084</v>
+      </c>
+      <c r="E80">
+        <v>0.004237377443761008</v>
+      </c>
+      <c r="F80">
+        <v>0.02019372434303139</v>
+      </c>
+      <c r="G80">
+        <v>0.03107495739822004</v>
+      </c>
+      <c r="H80">
+        <v>0.0507196006408337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1357663729484832</v>
+        <v>0.1053533180897707</v>
       </c>
       <c r="C81">
-        <v>-0.1159272314684436</v>
+        <v>-0.137951076597967</v>
       </c>
       <c r="D81">
-        <v>-0.1069684632131535</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1026229764369758</v>
+      </c>
+      <c r="E81">
+        <v>0.09568526850331273</v>
+      </c>
+      <c r="F81">
+        <v>0.05361167235999573</v>
+      </c>
+      <c r="G81">
+        <v>0.02466866923806032</v>
+      </c>
+      <c r="H81">
+        <v>0.02217977832733536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2719729195631957</v>
+        <v>0.2050214723629301</v>
       </c>
       <c r="C82">
-        <v>-0.2396381529773057</v>
+        <v>-0.2658187137800112</v>
       </c>
       <c r="D82">
-        <v>-0.2320081398715965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2341404125944039</v>
+      </c>
+      <c r="E82">
+        <v>0.003111473263514125</v>
+      </c>
+      <c r="F82">
+        <v>-0.05622126781017318</v>
+      </c>
+      <c r="G82">
+        <v>0.0717163710340156</v>
+      </c>
+      <c r="H82">
+        <v>-0.001708094539234618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02101274763466995</v>
+        <v>0.01203965216190352</v>
       </c>
       <c r="C83">
-        <v>-0.06098390279933082</v>
+        <v>-0.05538531750001427</v>
       </c>
       <c r="D83">
-        <v>0.05059358273254273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05726526426321258</v>
+      </c>
+      <c r="E83">
+        <v>0.05419112206595357</v>
+      </c>
+      <c r="F83">
+        <v>-0.07693569020766032</v>
+      </c>
+      <c r="G83">
+        <v>-0.01459389749870068</v>
+      </c>
+      <c r="H83">
+        <v>-0.02805670136069636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001177408029632592</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.007875056296139256</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02210030771757089</v>
+      </c>
+      <c r="E84">
+        <v>0.01505973185346697</v>
+      </c>
+      <c r="F84">
+        <v>0.02377423518833721</v>
+      </c>
+      <c r="G84">
+        <v>0.012673873827837</v>
+      </c>
+      <c r="H84">
+        <v>0.02104386622079493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1696238986957499</v>
+        <v>0.1364932655002935</v>
       </c>
       <c r="C85">
-        <v>-0.1246484982476918</v>
+        <v>-0.161552279870005</v>
       </c>
       <c r="D85">
-        <v>-0.06586892698750749</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08672264771772967</v>
+      </c>
+      <c r="E85">
+        <v>0.01708176910639958</v>
+      </c>
+      <c r="F85">
+        <v>0.05581057502247505</v>
+      </c>
+      <c r="G85">
+        <v>-0.05017047903110719</v>
+      </c>
+      <c r="H85">
+        <v>0.02184495862392123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02210124183175973</v>
+        <v>0.01938609328136455</v>
       </c>
       <c r="C86">
-        <v>-0.03643366747315081</v>
+        <v>-0.03690762589027671</v>
       </c>
       <c r="D86">
-        <v>0.1179132478802734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.118954990870769</v>
+      </c>
+      <c r="E86">
+        <v>0.0233991999556526</v>
+      </c>
+      <c r="F86">
+        <v>-0.01694705398481434</v>
+      </c>
+      <c r="G86">
+        <v>0.03386719974142133</v>
+      </c>
+      <c r="H86">
+        <v>-0.06403213762342928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0253339770235347</v>
+        <v>0.03024246303094022</v>
       </c>
       <c r="C87">
-        <v>-0.02624037104608774</v>
+        <v>-0.03796597571888252</v>
       </c>
       <c r="D87">
-        <v>0.11389098738317</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1413301198944862</v>
+      </c>
+      <c r="E87">
+        <v>0.0569516664479197</v>
+      </c>
+      <c r="F87">
+        <v>0.03313195397866225</v>
+      </c>
+      <c r="G87">
+        <v>0.01947569302592194</v>
+      </c>
+      <c r="H87">
+        <v>0.04816209850757205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07464558900738505</v>
+        <v>0.0607905344022451</v>
       </c>
       <c r="C88">
-        <v>-0.04538277525494935</v>
+        <v>-0.06248358472836651</v>
       </c>
       <c r="D88">
-        <v>0.05117189537349007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02367991834403438</v>
+      </c>
+      <c r="E88">
+        <v>0.004126134315092003</v>
+      </c>
+      <c r="F88">
+        <v>0.02764923461411896</v>
+      </c>
+      <c r="G88">
+        <v>-0.001210278985663598</v>
+      </c>
+      <c r="H88">
+        <v>0.0406958696627401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2636231769433299</v>
+        <v>0.3274528439059592</v>
       </c>
       <c r="C89">
-        <v>0.3844994919037854</v>
+        <v>0.3096697215282477</v>
       </c>
       <c r="D89">
-        <v>-0.003087015399411786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005717161589597846</v>
+      </c>
+      <c r="E89">
+        <v>0.06273980959239923</v>
+      </c>
+      <c r="F89">
+        <v>0.009413081580598021</v>
+      </c>
+      <c r="G89">
+        <v>-0.01752461896194046</v>
+      </c>
+      <c r="H89">
+        <v>0.1637319179235757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2217439129784123</v>
+        <v>0.267830427825095</v>
       </c>
       <c r="C90">
-        <v>0.2816551059299679</v>
+        <v>0.2189050464806722</v>
       </c>
       <c r="D90">
-        <v>0.02323610206840371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03498085689167588</v>
+      </c>
+      <c r="E90">
+        <v>0.04980757100076976</v>
+      </c>
+      <c r="F90">
+        <v>0.006684642954157828</v>
+      </c>
+      <c r="G90">
+        <v>0.06582084934076543</v>
+      </c>
+      <c r="H90">
+        <v>0.02303258145865876</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1735579315779046</v>
+        <v>0.135763353827329</v>
       </c>
       <c r="C91">
-        <v>-0.160069663660269</v>
+        <v>-0.1771191642443199</v>
       </c>
       <c r="D91">
-        <v>-0.1297790238308827</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1184054215557704</v>
+      </c>
+      <c r="E91">
+        <v>0.09990670364760434</v>
+      </c>
+      <c r="F91">
+        <v>0.06250997096921332</v>
+      </c>
+      <c r="G91">
+        <v>-0.03322540972698666</v>
+      </c>
+      <c r="H91">
+        <v>-0.03421644472331207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1882201671621177</v>
+        <v>0.2562404639210327</v>
       </c>
       <c r="C92">
-        <v>0.2716355311681505</v>
+        <v>0.2400456547036213</v>
       </c>
       <c r="D92">
-        <v>0.02206005501885644</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03432344437795001</v>
+      </c>
+      <c r="E92">
+        <v>0.1059101693364523</v>
+      </c>
+      <c r="F92">
+        <v>0.01146968458148998</v>
+      </c>
+      <c r="G92">
+        <v>0.01075305918592332</v>
+      </c>
+      <c r="H92">
+        <v>0.05602469202854365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.239870552619484</v>
+        <v>0.2833158890354809</v>
       </c>
       <c r="C93">
-        <v>0.3023966866332869</v>
+        <v>0.2341305122649395</v>
       </c>
       <c r="D93">
-        <v>0.03121377928565235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01128726452884682</v>
+      </c>
+      <c r="E93">
+        <v>-0.02627823594869816</v>
+      </c>
+      <c r="F93">
+        <v>0.03599504951953884</v>
+      </c>
+      <c r="G93">
+        <v>-0.01471955302063436</v>
+      </c>
+      <c r="H93">
+        <v>-0.03406582119560184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3485118318035196</v>
+        <v>0.2833809758127559</v>
       </c>
       <c r="C94">
-        <v>-0.2011280001790922</v>
+        <v>-0.2779442054563697</v>
       </c>
       <c r="D94">
-        <v>-0.3566676076502536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3809515402077676</v>
+      </c>
+      <c r="E94">
+        <v>0.02394072995828331</v>
+      </c>
+      <c r="F94">
+        <v>-0.03277079696173898</v>
+      </c>
+      <c r="G94">
+        <v>0.2636051951857205</v>
+      </c>
+      <c r="H94">
+        <v>0.2210530908675743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07242998710616584</v>
+        <v>0.06449323051417945</v>
       </c>
       <c r="C95">
-        <v>-0.06865515183111877</v>
+        <v>-0.08005706715228295</v>
       </c>
       <c r="D95">
-        <v>0.1534228576260014</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1254374934914044</v>
+      </c>
+      <c r="E95">
+        <v>0.2013952497888691</v>
+      </c>
+      <c r="F95">
+        <v>-0.6561180083337926</v>
+      </c>
+      <c r="G95">
+        <v>-0.3953457190233768</v>
+      </c>
+      <c r="H95">
+        <v>0.4614380047073527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3.983849914531835e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>3.366295439307907e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>7.704864462565568e-05</v>
+      </c>
+      <c r="E97">
+        <v>-0.0001584864498456206</v>
+      </c>
+      <c r="F97">
+        <v>0.0001629953466836554</v>
+      </c>
+      <c r="G97">
+        <v>0.0004320281172472176</v>
+      </c>
+      <c r="H97">
+        <v>-0.0004076593576386566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1727744301416614</v>
+        <v>0.1590466523915957</v>
       </c>
       <c r="C98">
-        <v>-0.05924585160640659</v>
+        <v>-0.1008960656818422</v>
       </c>
       <c r="D98">
-        <v>0.1464410780011539</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09961266824077926</v>
+      </c>
+      <c r="E98">
+        <v>-0.3271123327418932</v>
+      </c>
+      <c r="F98">
+        <v>-0.08085460578725499</v>
+      </c>
+      <c r="G98">
+        <v>-0.07939553272489575</v>
+      </c>
+      <c r="H98">
+        <v>-0.1207839754784841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0037476286323451</v>
+        <v>0.005448399282594001</v>
       </c>
       <c r="C101">
-        <v>-0.02246925810572444</v>
+        <v>-0.02629148479778359</v>
       </c>
       <c r="D101">
-        <v>0.09511077228275601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1027518803084078</v>
+      </c>
+      <c r="E101">
+        <v>0.005673841702076187</v>
+      </c>
+      <c r="F101">
+        <v>0.0472304214819898</v>
+      </c>
+      <c r="G101">
+        <v>0.02294620385202053</v>
+      </c>
+      <c r="H101">
+        <v>0.07995511198551121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1271495360582775</v>
+        <v>0.0923005196340289</v>
       </c>
       <c r="C102">
-        <v>-0.1271885507031941</v>
+        <v>-0.133240387134757</v>
       </c>
       <c r="D102">
-        <v>-0.09548661712177853</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09962563713254857</v>
+      </c>
+      <c r="E102">
+        <v>0.02410886581865403</v>
+      </c>
+      <c r="F102">
+        <v>-0.04034481279033077</v>
+      </c>
+      <c r="G102">
+        <v>0.02904760834104143</v>
+      </c>
+      <c r="H102">
+        <v>-0.003121888521705271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
